--- a/medicine/Enfance/Élaine_Turgeon/Élaine_Turgeon.xlsx
+++ b/medicine/Enfance/Élaine_Turgeon/Élaine_Turgeon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89laine_Turgeon</t>
+          <t>Élaine_Turgeon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Élaine Turgeon est une écrivaine, enseignante, conseillère en pédagogie et conférencière québécoise.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89laine_Turgeon</t>
+          <t>Élaine_Turgeon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née à Québec le 27 novembre 1970, Élaine Turgeon grandit dans la capitale, et lit de nombreux ouvrages. Enfant, elle rêve déjà d’être écrivaine. À quinze ans, dépressive et entretenant une conception romantique de la mort, elle tente de mettre fin à ses jours. Cet événement sera plus tard l'élément déclencheur de l’écriture d’un roman pour adolescents portant sur le suicide. Toujours adolescente, elle lit entre autres Sartre, Camus et Baudelaire, « rien de très réjouissant ». Ce n’est qu’à l’âge adulte qu’elle redécouvrira les livres pour enfants.
 En 1988, Élaine Turgeon déménage à Montréal où elle passe le baccalauréat en enseignement primaire et un certificat en littérature jeunesse à l’Université du Québec à Montréal de même qu’une maîtrise et un doctorat en didactique du français à l’Université de Montréal. Passionnée par la littérature, c’est l’exploitation de la littérature jeunesse en classe qu’elle y étudie alors. Son expérience de cinq ans comme enseignante au primaire ainsi que son parcours d’études supérieures l’amènent à être conseillère pédagogique.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89laine_Turgeon</t>
+          <t>Élaine_Turgeon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,16 +561,55 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Œuvres littéraires
-Le père Noël travaille à mon école (2006)
+          <t>Œuvres littéraires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le père Noël travaille à mon école (2006)
 Ma vie ne sait pas nager (2006)
 Mon prof est une sorcière (2004)
 Une histoire tout feu tout flamme (2002)
 Une histoire à dormir debout (2001)
 Une histoire du tonnerre (2000)
-Une histoire tirée par la queue (1999)
-Matériel pédagogique
-Les cercles de lecture (2005)
+Une histoire tirée par la queue (1999)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Élaine_Turgeon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89laine_Turgeon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Matériel pédagogique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les cercles de lecture (2005)
 Quand lire rime avec plaisir (2005)</t>
         </is>
       </c>
